--- a/data/Analyse des signalements et des données Météo DSK_v9_pour_tableaux.xlsx
+++ b/data/Analyse des signalements et des données Météo DSK_v9_pour_tableaux.xlsx
@@ -16608,7 +16608,7 @@
   </sheetPr>
   <dimension ref="B12:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
